--- a/Prices/dns/dns--Ноутбук--Jan-25--final.xlsx
+++ b/Prices/dns/dns--Ноутбук--Jan-25--final.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shulya403\Shulya403_works\Ya-parse\Prices\dns\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
@@ -7029,8 +7024,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7160,7 +7155,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7192,10 +7187,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7227,7 +7221,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -7403,16 +7396,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L876"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="A830" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:L876"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7447,7 +7440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -7482,7 +7475,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -7517,7 +7510,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -7552,7 +7545,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -7587,7 +7580,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -7622,7 +7615,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -7657,7 +7650,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -7692,7 +7685,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -7727,7 +7720,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -7762,7 +7755,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -7797,7 +7790,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -7832,7 +7825,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -7867,7 +7860,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -7902,7 +7895,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -7937,7 +7930,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -7972,7 +7965,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -8007,7 +8000,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -8042,7 +8035,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -8077,7 +8070,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -8112,7 +8105,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -8147,7 +8140,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -8182,7 +8175,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -8217,7 +8210,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -8252,7 +8245,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -8287,7 +8280,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -8322,7 +8315,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -8357,7 +8350,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -8392,7 +8385,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -8427,7 +8420,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -8462,7 +8455,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -8497,7 +8490,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -8532,7 +8525,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -8567,7 +8560,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -8602,7 +8595,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -8637,7 +8630,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -8672,7 +8665,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -8707,7 +8700,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -8739,7 +8732,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -8771,7 +8764,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -8806,7 +8799,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -8841,7 +8834,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -8876,7 +8869,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -8911,7 +8904,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -8946,7 +8939,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -8981,7 +8974,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -9016,7 +9009,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -9051,7 +9044,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -9086,7 +9079,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -9121,7 +9114,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -9156,7 +9149,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -9188,7 +9181,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -9223,7 +9216,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -9258,7 +9251,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -9293,7 +9286,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -9328,7 +9321,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -9363,7 +9356,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -9398,7 +9391,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -9433,7 +9426,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -9468,7 +9461,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -9503,7 +9496,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -9538,7 +9531,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -9573,7 +9566,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -9608,7 +9601,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -9643,7 +9636,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -9678,7 +9671,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -9713,7 +9706,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -9748,7 +9741,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -9780,7 +9773,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -9812,7 +9805,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -9847,7 +9840,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -9882,7 +9875,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -9914,7 +9907,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -9949,7 +9942,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -9984,7 +9977,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -10019,7 +10012,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -10054,7 +10047,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -10089,7 +10082,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -10124,7 +10117,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -10156,7 +10149,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -10188,7 +10181,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -10220,7 +10213,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -10255,7 +10248,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -10290,7 +10283,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -10325,7 +10318,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -10360,7 +10353,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -10395,7 +10388,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -10430,7 +10423,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -10465,7 +10458,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -10497,7 +10490,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -10532,7 +10525,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -10567,7 +10560,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -10602,7 +10595,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -10637,7 +10630,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -10672,7 +10665,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -10707,7 +10700,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -10742,7 +10735,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -10777,7 +10770,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -10809,7 +10802,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -10844,7 +10837,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -10879,7 +10872,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -10914,7 +10907,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -10949,7 +10942,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -10981,7 +10974,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -11016,7 +11009,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -11051,7 +11044,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -11083,7 +11076,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -11118,7 +11111,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -11153,7 +11146,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -11188,7 +11181,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -11223,7 +11216,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -11258,7 +11251,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -11293,7 +11286,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -11325,7 +11318,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -11360,7 +11353,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -11395,7 +11388,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -11430,7 +11423,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -11465,7 +11458,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -11500,7 +11493,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -11535,7 +11528,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -11570,7 +11563,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -11605,7 +11598,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -11640,7 +11633,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -11675,7 +11668,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -11710,7 +11703,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -11745,7 +11738,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -11780,7 +11773,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -11815,7 +11808,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -11850,7 +11843,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -11885,7 +11878,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -11920,7 +11913,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -11955,7 +11948,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -11990,7 +11983,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -12025,7 +12018,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -12060,7 +12053,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -12092,7 +12085,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -12124,7 +12117,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -12156,7 +12149,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -12191,7 +12184,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -12226,7 +12219,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -12261,7 +12254,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -12296,7 +12289,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -12331,7 +12324,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -12366,7 +12359,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -12401,7 +12394,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -12433,7 +12426,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -12468,7 +12461,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -12503,7 +12496,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -12538,7 +12531,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -12573,7 +12566,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -12608,7 +12601,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -12643,7 +12636,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -12678,7 +12671,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -12713,7 +12706,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -12748,7 +12741,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -12783,7 +12776,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -12815,7 +12808,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -12847,7 +12840,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -12882,7 +12875,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -12914,7 +12907,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -12949,7 +12942,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -12984,7 +12977,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -13019,7 +13012,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -13054,7 +13047,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -13089,7 +13082,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -13121,7 +13114,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -13156,7 +13149,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -13191,7 +13184,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -13226,7 +13219,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -13261,7 +13254,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -13296,7 +13289,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -13331,7 +13324,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -13363,7 +13356,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -13398,7 +13391,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -13433,7 +13426,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -13468,7 +13461,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -13503,7 +13496,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -13538,7 +13531,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -13573,7 +13566,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -13608,7 +13601,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -13643,7 +13636,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -13678,7 +13671,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -13713,7 +13706,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -13748,7 +13741,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -13783,7 +13776,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -13818,7 +13811,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -13853,7 +13846,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -13888,7 +13881,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -13923,7 +13916,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -13958,7 +13951,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -13993,7 +13986,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -14028,7 +14021,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -14063,7 +14056,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -14098,7 +14091,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -14133,7 +14126,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -14168,7 +14161,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -14203,7 +14196,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -14238,7 +14231,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -14273,7 +14266,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -14308,7 +14301,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -14343,7 +14336,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -14375,7 +14368,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -14410,7 +14403,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -14445,7 +14438,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -14480,7 +14473,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -14515,7 +14508,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -14550,7 +14543,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -14585,7 +14578,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -14620,7 +14613,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -14655,7 +14648,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -14687,7 +14680,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -14722,7 +14715,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -14757,7 +14750,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -14792,7 +14785,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -14827,7 +14820,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -14859,7 +14852,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -14894,7 +14887,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -14929,7 +14922,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -14964,7 +14957,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -14996,7 +14989,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -15031,7 +15024,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -15066,7 +15059,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -15101,7 +15094,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -15136,7 +15129,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -15171,7 +15164,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -15203,7 +15196,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -15235,7 +15228,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -15267,7 +15260,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -15299,7 +15292,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -15331,7 +15324,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -15366,7 +15359,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -15401,7 +15394,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -15436,7 +15429,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -15471,7 +15464,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -15506,7 +15499,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -15541,7 +15534,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -15576,7 +15569,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -15608,7 +15601,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -15640,7 +15633,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -15672,7 +15665,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -15707,7 +15700,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -15742,7 +15735,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -15777,7 +15770,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -15812,7 +15805,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -15847,7 +15840,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -15882,7 +15875,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -15917,7 +15910,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -15949,7 +15942,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -15984,7 +15977,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -16019,7 +16012,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -16054,7 +16047,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -16089,7 +16082,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -16121,7 +16114,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -16156,7 +16149,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12">
       <c r="A254" s="1">
         <f>A253+1</f>
         <v>252</v>
@@ -16192,7 +16185,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12">
       <c r="A255" s="1">
         <f t="shared" ref="A255:A318" si="0">A254+1</f>
         <v>253</v>
@@ -16228,7 +16221,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12">
       <c r="A256" s="1">
         <f t="shared" si="0"/>
         <v>254</v>
@@ -16264,7 +16257,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12">
       <c r="A257" s="1">
         <f t="shared" si="0"/>
         <v>255</v>
@@ -16300,7 +16293,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12">
       <c r="A258" s="1">
         <f t="shared" si="0"/>
         <v>256</v>
@@ -16336,7 +16329,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12">
       <c r="A259" s="1">
         <f t="shared" si="0"/>
         <v>257</v>
@@ -16372,7 +16365,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12">
       <c r="A260" s="1">
         <f t="shared" si="0"/>
         <v>258</v>
@@ -16408,7 +16401,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12">
       <c r="A261" s="1">
         <f t="shared" si="0"/>
         <v>259</v>
@@ -16444,7 +16437,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12">
       <c r="A262" s="1">
         <f t="shared" si="0"/>
         <v>260</v>
@@ -16477,7 +16470,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12">
       <c r="A263" s="1">
         <f t="shared" si="0"/>
         <v>261</v>
@@ -16513,7 +16506,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12">
       <c r="A264" s="1">
         <f t="shared" si="0"/>
         <v>262</v>
@@ -16549,7 +16542,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12">
       <c r="A265" s="1">
         <f t="shared" si="0"/>
         <v>263</v>
@@ -16585,7 +16578,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12">
       <c r="A266" s="1">
         <f t="shared" si="0"/>
         <v>264</v>
@@ -16618,7 +16611,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12">
       <c r="A267" s="1">
         <f t="shared" si="0"/>
         <v>265</v>
@@ -16654,7 +16647,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12">
       <c r="A268" s="1">
         <f t="shared" si="0"/>
         <v>266</v>
@@ -16690,7 +16683,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12">
       <c r="A269" s="1">
         <f t="shared" si="0"/>
         <v>267</v>
@@ -16726,7 +16719,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12">
       <c r="A270" s="1">
         <f t="shared" si="0"/>
         <v>268</v>
@@ -16759,7 +16752,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12">
       <c r="A271" s="1">
         <f t="shared" si="0"/>
         <v>269</v>
@@ -16795,7 +16788,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12">
       <c r="A272" s="1">
         <f t="shared" si="0"/>
         <v>270</v>
@@ -16831,7 +16824,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12">
       <c r="A273" s="1">
         <f t="shared" si="0"/>
         <v>271</v>
@@ -16867,7 +16860,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12">
       <c r="A274" s="1">
         <f t="shared" si="0"/>
         <v>272</v>
@@ -16900,7 +16893,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12">
       <c r="A275" s="1">
         <f t="shared" si="0"/>
         <v>273</v>
@@ -16936,7 +16929,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12">
       <c r="A276" s="1">
         <f t="shared" si="0"/>
         <v>274</v>
@@ -16972,7 +16965,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12">
       <c r="A277" s="1">
         <f t="shared" si="0"/>
         <v>275</v>
@@ -17008,7 +17001,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12">
       <c r="A278" s="1">
         <f t="shared" si="0"/>
         <v>276</v>
@@ -17044,7 +17037,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12">
       <c r="A279" s="1">
         <f t="shared" si="0"/>
         <v>277</v>
@@ -17080,7 +17073,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12">
       <c r="A280" s="1">
         <f t="shared" si="0"/>
         <v>278</v>
@@ -17116,7 +17109,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12">
       <c r="A281" s="1">
         <f t="shared" si="0"/>
         <v>279</v>
@@ -17152,7 +17145,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12">
       <c r="A282" s="1">
         <f t="shared" si="0"/>
         <v>280</v>
@@ -17185,7 +17178,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12">
       <c r="A283" s="1">
         <f t="shared" si="0"/>
         <v>281</v>
@@ -17221,7 +17214,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12">
       <c r="A284" s="1">
         <f t="shared" si="0"/>
         <v>282</v>
@@ -17257,7 +17250,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12">
       <c r="A285" s="1">
         <f t="shared" si="0"/>
         <v>283</v>
@@ -17290,7 +17283,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12">
       <c r="A286" s="1">
         <f t="shared" si="0"/>
         <v>284</v>
@@ -17326,7 +17319,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12">
       <c r="A287" s="1">
         <f t="shared" si="0"/>
         <v>285</v>
@@ -17362,7 +17355,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12">
       <c r="A288" s="1">
         <f t="shared" si="0"/>
         <v>286</v>
@@ -17395,7 +17388,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12">
       <c r="A289" s="1">
         <f t="shared" si="0"/>
         <v>287</v>
@@ -17431,7 +17424,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12">
       <c r="A290" s="1">
         <f t="shared" si="0"/>
         <v>288</v>
@@ -17467,7 +17460,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12">
       <c r="A291" s="1">
         <f t="shared" si="0"/>
         <v>289</v>
@@ -17503,7 +17496,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12">
       <c r="A292" s="1">
         <f t="shared" si="0"/>
         <v>290</v>
@@ -17539,7 +17532,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12">
       <c r="A293" s="1">
         <f t="shared" si="0"/>
         <v>291</v>
@@ -17572,7 +17565,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12">
       <c r="A294" s="1">
         <f t="shared" si="0"/>
         <v>292</v>
@@ -17605,7 +17598,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12">
       <c r="A295" s="1">
         <f t="shared" si="0"/>
         <v>293</v>
@@ -17641,7 +17634,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12">
       <c r="A296" s="1">
         <f t="shared" si="0"/>
         <v>294</v>
@@ -17677,7 +17670,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12">
       <c r="A297" s="1">
         <f t="shared" si="0"/>
         <v>295</v>
@@ -17710,7 +17703,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12">
       <c r="A298" s="1">
         <f t="shared" si="0"/>
         <v>296</v>
@@ -17746,7 +17739,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12">
       <c r="A299" s="1">
         <f t="shared" si="0"/>
         <v>297</v>
@@ -17782,7 +17775,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12">
       <c r="A300" s="1">
         <f t="shared" si="0"/>
         <v>298</v>
@@ -17818,7 +17811,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12">
       <c r="A301" s="1">
         <f t="shared" si="0"/>
         <v>299</v>
@@ -17854,7 +17847,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12">
       <c r="A302" s="1">
         <f t="shared" si="0"/>
         <v>300</v>
@@ -17890,7 +17883,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12">
       <c r="A303" s="1">
         <f t="shared" si="0"/>
         <v>301</v>
@@ -17923,7 +17916,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12">
       <c r="A304" s="1">
         <f t="shared" si="0"/>
         <v>302</v>
@@ -17959,7 +17952,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12">
       <c r="A305" s="1">
         <f t="shared" si="0"/>
         <v>303</v>
@@ -17995,7 +17988,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12">
       <c r="A306" s="1">
         <f t="shared" si="0"/>
         <v>304</v>
@@ -18031,7 +18024,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12">
       <c r="A307" s="1">
         <f t="shared" si="0"/>
         <v>305</v>
@@ -18067,7 +18060,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12">
       <c r="A308" s="1">
         <f t="shared" si="0"/>
         <v>306</v>
@@ -18100,7 +18093,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12">
       <c r="A309" s="1">
         <f t="shared" si="0"/>
         <v>307</v>
@@ -18136,7 +18129,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12">
       <c r="A310" s="1">
         <f t="shared" si="0"/>
         <v>308</v>
@@ -18172,7 +18165,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:12">
       <c r="A311" s="1">
         <f t="shared" si="0"/>
         <v>309</v>
@@ -18208,7 +18201,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12">
       <c r="A312" s="1">
         <f t="shared" si="0"/>
         <v>310</v>
@@ -18244,7 +18237,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12">
       <c r="A313" s="1">
         <f t="shared" si="0"/>
         <v>311</v>
@@ -18280,7 +18273,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:12">
       <c r="A314" s="1">
         <f t="shared" si="0"/>
         <v>312</v>
@@ -18313,7 +18306,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12">
       <c r="A315" s="1">
         <f t="shared" si="0"/>
         <v>313</v>
@@ -18346,7 +18339,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12">
       <c r="A316" s="1">
         <f t="shared" si="0"/>
         <v>314</v>
@@ -18382,7 +18375,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12">
       <c r="A317" s="1">
         <f t="shared" si="0"/>
         <v>315</v>
@@ -18418,7 +18411,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12">
       <c r="A318" s="1">
         <f t="shared" si="0"/>
         <v>316</v>
@@ -18451,7 +18444,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12">
       <c r="A319" s="1">
         <f t="shared" ref="A319:A382" si="1">A318+1</f>
         <v>317</v>
@@ -18487,7 +18480,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12">
       <c r="A320" s="1">
         <f t="shared" si="1"/>
         <v>318</v>
@@ -18520,7 +18513,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:12">
       <c r="A321" s="1">
         <f t="shared" si="1"/>
         <v>319</v>
@@ -18553,7 +18546,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:12">
       <c r="A322" s="1">
         <f t="shared" si="1"/>
         <v>320</v>
@@ -18586,7 +18579,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:12">
       <c r="A323" s="1">
         <f t="shared" si="1"/>
         <v>321</v>
@@ -18619,7 +18612,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:12">
       <c r="A324" s="1">
         <f t="shared" si="1"/>
         <v>322</v>
@@ -18655,7 +18648,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:12">
       <c r="A325" s="1">
         <f t="shared" si="1"/>
         <v>323</v>
@@ -18691,7 +18684,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:12">
       <c r="A326" s="1">
         <f t="shared" si="1"/>
         <v>324</v>
@@ -18727,7 +18720,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:12">
       <c r="A327" s="1">
         <f t="shared" si="1"/>
         <v>325</v>
@@ -18763,7 +18756,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:12">
       <c r="A328" s="1">
         <f t="shared" si="1"/>
         <v>326</v>
@@ -18799,7 +18792,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:12">
       <c r="A329" s="1">
         <f t="shared" si="1"/>
         <v>327</v>
@@ -18832,7 +18825,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:12">
       <c r="A330" s="1">
         <f t="shared" si="1"/>
         <v>328</v>
@@ -18868,7 +18861,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:12">
       <c r="A331" s="1">
         <f t="shared" si="1"/>
         <v>329</v>
@@ -18904,7 +18897,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:12">
       <c r="A332" s="1">
         <f t="shared" si="1"/>
         <v>330</v>
@@ -18940,7 +18933,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:12">
       <c r="A333" s="1">
         <f t="shared" si="1"/>
         <v>331</v>
@@ -18973,7 +18966,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:12">
       <c r="A334" s="1">
         <f t="shared" si="1"/>
         <v>332</v>
@@ -19009,7 +19002,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:12">
       <c r="A335" s="1">
         <f t="shared" si="1"/>
         <v>333</v>
@@ -19042,7 +19035,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:12">
       <c r="A336" s="1">
         <f t="shared" si="1"/>
         <v>334</v>
@@ -19078,7 +19071,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:12">
       <c r="A337" s="1">
         <f t="shared" si="1"/>
         <v>335</v>
@@ -19111,7 +19104,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:12">
       <c r="A338" s="1">
         <f t="shared" si="1"/>
         <v>336</v>
@@ -19147,7 +19140,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:12">
       <c r="A339" s="1">
         <f t="shared" si="1"/>
         <v>337</v>
@@ -19183,7 +19176,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:12">
       <c r="A340" s="1">
         <f t="shared" si="1"/>
         <v>338</v>
@@ -19219,7 +19212,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:12">
       <c r="A341" s="1">
         <f t="shared" si="1"/>
         <v>339</v>
@@ -19252,7 +19245,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:12">
       <c r="A342" s="1">
         <f t="shared" si="1"/>
         <v>340</v>
@@ -19288,7 +19281,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:12">
       <c r="A343" s="1">
         <f t="shared" si="1"/>
         <v>341</v>
@@ -19324,7 +19317,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:12">
       <c r="A344" s="1">
         <f t="shared" si="1"/>
         <v>342</v>
@@ -19360,7 +19353,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:12">
       <c r="A345" s="1">
         <f t="shared" si="1"/>
         <v>343</v>
@@ -19393,7 +19386,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:12">
       <c r="A346" s="1">
         <f t="shared" si="1"/>
         <v>344</v>
@@ -19426,7 +19419,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:12">
       <c r="A347" s="1">
         <f t="shared" si="1"/>
         <v>345</v>
@@ -19459,7 +19452,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:12">
       <c r="A348" s="1">
         <f t="shared" si="1"/>
         <v>346</v>
@@ -19495,7 +19488,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:12">
       <c r="A349" s="1">
         <f t="shared" si="1"/>
         <v>347</v>
@@ -19531,7 +19524,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:12">
       <c r="A350" s="1">
         <f t="shared" si="1"/>
         <v>348</v>
@@ -19567,7 +19560,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:12">
       <c r="A351" s="1">
         <f t="shared" si="1"/>
         <v>349</v>
@@ -19603,7 +19596,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:12">
       <c r="A352" s="1">
         <f t="shared" si="1"/>
         <v>350</v>
@@ -19639,7 +19632,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12">
       <c r="A353" s="1">
         <f t="shared" si="1"/>
         <v>351</v>
@@ -19675,7 +19668,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12">
       <c r="A354" s="1">
         <f t="shared" si="1"/>
         <v>352</v>
@@ -19711,7 +19704,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12">
       <c r="A355" s="1">
         <f t="shared" si="1"/>
         <v>353</v>
@@ -19747,7 +19740,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12">
       <c r="A356" s="1">
         <f t="shared" si="1"/>
         <v>354</v>
@@ -19780,7 +19773,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12">
       <c r="A357" s="1">
         <f t="shared" si="1"/>
         <v>355</v>
@@ -19816,7 +19809,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12">
       <c r="A358" s="1">
         <f t="shared" si="1"/>
         <v>356</v>
@@ -19852,7 +19845,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12">
       <c r="A359" s="1">
         <f t="shared" si="1"/>
         <v>357</v>
@@ -19885,7 +19878,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12">
       <c r="A360" s="1">
         <f t="shared" si="1"/>
         <v>358</v>
@@ -19921,7 +19914,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12">
       <c r="A361" s="1">
         <f t="shared" si="1"/>
         <v>359</v>
@@ -19957,7 +19950,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12">
       <c r="A362" s="1">
         <f t="shared" si="1"/>
         <v>360</v>
@@ -19993,7 +19986,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12">
       <c r="A363" s="1">
         <f t="shared" si="1"/>
         <v>361</v>
@@ -20029,7 +20022,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12">
       <c r="A364" s="1">
         <f t="shared" si="1"/>
         <v>362</v>
@@ -20062,7 +20055,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12">
       <c r="A365" s="1">
         <f t="shared" si="1"/>
         <v>363</v>
@@ -20098,7 +20091,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12">
       <c r="A366" s="1">
         <f t="shared" si="1"/>
         <v>364</v>
@@ -20134,7 +20127,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12">
       <c r="A367" s="1">
         <f t="shared" si="1"/>
         <v>365</v>
@@ -20170,7 +20163,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12">
       <c r="A368" s="1">
         <f t="shared" si="1"/>
         <v>366</v>
@@ -20206,7 +20199,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:12">
       <c r="A369" s="1">
         <f t="shared" si="1"/>
         <v>367</v>
@@ -20242,7 +20235,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:12">
       <c r="A370" s="1">
         <f t="shared" si="1"/>
         <v>368</v>
@@ -20278,7 +20271,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:12">
       <c r="A371" s="1">
         <f t="shared" si="1"/>
         <v>369</v>
@@ -20314,7 +20307,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:12">
       <c r="A372" s="1">
         <f t="shared" si="1"/>
         <v>370</v>
@@ -20350,7 +20343,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:12">
       <c r="A373" s="1">
         <f t="shared" si="1"/>
         <v>371</v>
@@ -20386,7 +20379,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:12">
       <c r="A374" s="1">
         <f t="shared" si="1"/>
         <v>372</v>
@@ -20422,7 +20415,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:12">
       <c r="A375" s="1">
         <f t="shared" si="1"/>
         <v>373</v>
@@ -20458,7 +20451,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:12">
       <c r="A376" s="1">
         <f t="shared" si="1"/>
         <v>374</v>
@@ -20494,7 +20487,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:12">
       <c r="A377" s="1">
         <f t="shared" si="1"/>
         <v>375</v>
@@ -20530,7 +20523,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:12">
       <c r="A378" s="1">
         <f t="shared" si="1"/>
         <v>376</v>
@@ -20563,7 +20556,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:12">
       <c r="A379" s="1">
         <f t="shared" si="1"/>
         <v>377</v>
@@ -20599,7 +20592,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:12">
       <c r="A380" s="1">
         <f t="shared" si="1"/>
         <v>378</v>
@@ -20635,7 +20628,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:12">
       <c r="A381" s="1">
         <f t="shared" si="1"/>
         <v>379</v>
@@ -20671,7 +20664,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:12">
       <c r="A382" s="1">
         <f t="shared" si="1"/>
         <v>380</v>
@@ -20707,7 +20700,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:12">
       <c r="A383" s="1">
         <f t="shared" ref="A383:A446" si="2">A382+1</f>
         <v>381</v>
@@ -20743,7 +20736,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:12">
       <c r="A384" s="1">
         <f t="shared" si="2"/>
         <v>382</v>
@@ -20779,7 +20772,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:12">
       <c r="A385" s="1">
         <f t="shared" si="2"/>
         <v>383</v>
@@ -20815,7 +20808,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:12">
       <c r="A386" s="1">
         <f t="shared" si="2"/>
         <v>384</v>
@@ -20851,7 +20844,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:12">
       <c r="A387" s="1">
         <f t="shared" si="2"/>
         <v>385</v>
@@ -20887,7 +20880,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:12">
       <c r="A388" s="1">
         <f t="shared" si="2"/>
         <v>386</v>
@@ -20920,7 +20913,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:12">
       <c r="A389" s="1">
         <f t="shared" si="2"/>
         <v>387</v>
@@ -20956,7 +20949,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:12">
       <c r="A390" s="1">
         <f t="shared" si="2"/>
         <v>388</v>
@@ -20992,7 +20985,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:12">
       <c r="A391" s="1">
         <f t="shared" si="2"/>
         <v>389</v>
@@ -21028,7 +21021,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:12">
       <c r="A392" s="1">
         <f t="shared" si="2"/>
         <v>390</v>
@@ -21064,7 +21057,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:12">
       <c r="A393" s="1">
         <f t="shared" si="2"/>
         <v>391</v>
@@ -21097,7 +21090,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:12">
       <c r="A394" s="1">
         <f t="shared" si="2"/>
         <v>392</v>
@@ -21133,7 +21126,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:12">
       <c r="A395" s="1">
         <f t="shared" si="2"/>
         <v>393</v>
@@ -21166,7 +21159,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:12">
       <c r="A396" s="1">
         <f t="shared" si="2"/>
         <v>394</v>
@@ -21202,7 +21195,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:12">
       <c r="A397" s="1">
         <f t="shared" si="2"/>
         <v>395</v>
@@ -21238,7 +21231,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:12">
       <c r="A398" s="1">
         <f t="shared" si="2"/>
         <v>396</v>
@@ -21274,7 +21267,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:12">
       <c r="A399" s="1">
         <f t="shared" si="2"/>
         <v>397</v>
@@ -21307,7 +21300,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:12">
       <c r="A400" s="1">
         <f t="shared" si="2"/>
         <v>398</v>
@@ -21340,7 +21333,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:12">
       <c r="A401" s="1">
         <f t="shared" si="2"/>
         <v>399</v>
@@ -21376,7 +21369,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:12">
       <c r="A402" s="1">
         <f t="shared" si="2"/>
         <v>400</v>
@@ -21412,7 +21405,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:12">
       <c r="A403" s="1">
         <f t="shared" si="2"/>
         <v>401</v>
@@ -21448,7 +21441,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:12">
       <c r="A404" s="1">
         <f t="shared" si="2"/>
         <v>402</v>
@@ -21484,7 +21477,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:12">
       <c r="A405" s="1">
         <f t="shared" si="2"/>
         <v>403</v>
@@ -21520,7 +21513,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:12">
       <c r="A406" s="1">
         <f t="shared" si="2"/>
         <v>404</v>
@@ -21556,7 +21549,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:12">
       <c r="A407" s="1">
         <f t="shared" si="2"/>
         <v>405</v>
@@ -21592,7 +21585,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:12">
       <c r="A408" s="1">
         <f t="shared" si="2"/>
         <v>406</v>
@@ -21628,7 +21621,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:12">
       <c r="A409" s="1">
         <f t="shared" si="2"/>
         <v>407</v>
@@ -21664,7 +21657,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:12">
       <c r="A410" s="1">
         <f t="shared" si="2"/>
         <v>408</v>
@@ -21700,7 +21693,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:12">
       <c r="A411" s="1">
         <f t="shared" si="2"/>
         <v>409</v>
@@ -21736,7 +21729,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:12">
       <c r="A412" s="1">
         <f t="shared" si="2"/>
         <v>410</v>
@@ -21772,7 +21765,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:12">
       <c r="A413" s="1">
         <f t="shared" si="2"/>
         <v>411</v>
@@ -21805,7 +21798,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:12">
       <c r="A414" s="1">
         <f t="shared" si="2"/>
         <v>412</v>
@@ -21841,7 +21834,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:12">
       <c r="A415" s="1">
         <f t="shared" si="2"/>
         <v>413</v>
@@ -21877,7 +21870,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:12">
       <c r="A416" s="1">
         <f t="shared" si="2"/>
         <v>414</v>
@@ -21910,7 +21903,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:12">
       <c r="A417" s="1">
         <f t="shared" si="2"/>
         <v>415</v>
@@ -21946,7 +21939,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:12">
       <c r="A418" s="1">
         <f t="shared" si="2"/>
         <v>416</v>
@@ -21979,7 +21972,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:12">
       <c r="A419" s="1">
         <f t="shared" si="2"/>
         <v>417</v>
@@ -22015,7 +22008,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:12">
       <c r="A420" s="1">
         <f t="shared" si="2"/>
         <v>418</v>
@@ -22051,7 +22044,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:12">
       <c r="A421" s="1">
         <f t="shared" si="2"/>
         <v>419</v>
@@ -22087,7 +22080,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:12">
       <c r="A422" s="1">
         <f t="shared" si="2"/>
         <v>420</v>
@@ -22120,7 +22113,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:12">
       <c r="A423" s="1">
         <f t="shared" si="2"/>
         <v>421</v>
@@ -22156,7 +22149,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:12">
       <c r="A424" s="1">
         <f t="shared" si="2"/>
         <v>422</v>
@@ -22192,7 +22185,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:12">
       <c r="A425" s="1">
         <f t="shared" si="2"/>
         <v>423</v>
@@ -22228,7 +22221,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:12">
       <c r="A426" s="1">
         <f t="shared" si="2"/>
         <v>424</v>
@@ -22264,7 +22257,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:12">
       <c r="A427" s="1">
         <f t="shared" si="2"/>
         <v>425</v>
@@ -22300,7 +22293,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:12">
       <c r="A428" s="1">
         <f t="shared" si="2"/>
         <v>426</v>
@@ -22336,7 +22329,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:12">
       <c r="A429" s="1">
         <f t="shared" si="2"/>
         <v>427</v>
@@ -22372,7 +22365,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:12">
       <c r="A430" s="1">
         <f t="shared" si="2"/>
         <v>428</v>
@@ -22408,7 +22401,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:12">
       <c r="A431" s="1">
         <f t="shared" si="2"/>
         <v>429</v>
@@ -22441,7 +22434,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:12">
       <c r="A432" s="1">
         <f t="shared" si="2"/>
         <v>430</v>
@@ -22477,7 +22470,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:12">
       <c r="A433" s="1">
         <f t="shared" si="2"/>
         <v>431</v>
@@ -22513,7 +22506,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:12">
       <c r="A434" s="1">
         <f t="shared" si="2"/>
         <v>432</v>
@@ -22549,7 +22542,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:12">
       <c r="A435" s="1">
         <f t="shared" si="2"/>
         <v>433</v>
@@ -22585,7 +22578,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:12">
       <c r="A436" s="1">
         <f t="shared" si="2"/>
         <v>434</v>
@@ -22621,7 +22614,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:12">
       <c r="A437" s="1">
         <f t="shared" si="2"/>
         <v>435</v>
@@ -22657,7 +22650,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:12">
       <c r="A438" s="1">
         <f t="shared" si="2"/>
         <v>436</v>
@@ -22693,7 +22686,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:12">
       <c r="A439" s="1">
         <f t="shared" si="2"/>
         <v>437</v>
@@ -22729,7 +22722,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:12">
       <c r="A440" s="1">
         <f t="shared" si="2"/>
         <v>438</v>
@@ -22765,7 +22758,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:12">
       <c r="A441" s="1">
         <f t="shared" si="2"/>
         <v>439</v>
@@ -22801,7 +22794,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:12">
       <c r="A442" s="1">
         <f t="shared" si="2"/>
         <v>440</v>
@@ -22837,7 +22830,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:12">
       <c r="A443" s="1">
         <f t="shared" si="2"/>
         <v>441</v>
@@ -22873,7 +22866,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:12">
       <c r="A444" s="1">
         <f t="shared" si="2"/>
         <v>442</v>
@@ -22909,7 +22902,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:12">
       <c r="A445" s="1">
         <f t="shared" si="2"/>
         <v>443</v>
@@ -22945,7 +22938,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:12">
       <c r="A446" s="1">
         <f t="shared" si="2"/>
         <v>444</v>
@@ -22978,7 +22971,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:12">
       <c r="A447" s="1">
         <f t="shared" ref="A447:A510" si="3">A446+1</f>
         <v>445</v>
@@ -23014,7 +23007,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:12">
       <c r="A448" s="1">
         <f t="shared" si="3"/>
         <v>446</v>
@@ -23050,7 +23043,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:12">
       <c r="A449" s="1">
         <f t="shared" si="3"/>
         <v>447</v>
@@ -23086,7 +23079,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:12">
       <c r="A450" s="1">
         <f t="shared" si="3"/>
         <v>448</v>
@@ -23119,7 +23112,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:12">
       <c r="A451" s="1">
         <f t="shared" si="3"/>
         <v>449</v>
@@ -23155,7 +23148,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:12">
       <c r="A452" s="1">
         <f t="shared" si="3"/>
         <v>450</v>
@@ -23188,7 +23181,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="453" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:12">
       <c r="A453" s="1">
         <f t="shared" si="3"/>
         <v>451</v>
@@ -23221,7 +23214,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="454" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:12">
       <c r="A454" s="1">
         <f t="shared" si="3"/>
         <v>452</v>
@@ -23257,7 +23250,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="455" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:12">
       <c r="A455" s="1">
         <f t="shared" si="3"/>
         <v>453</v>
@@ -23293,7 +23286,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="456" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:12">
       <c r="A456" s="1">
         <f t="shared" si="3"/>
         <v>454</v>
@@ -23329,7 +23322,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="457" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:12">
       <c r="A457" s="1">
         <f t="shared" si="3"/>
         <v>455</v>
@@ -23365,7 +23358,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="458" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:12">
       <c r="A458" s="1">
         <f t="shared" si="3"/>
         <v>456</v>
@@ -23401,7 +23394,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="459" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:12">
       <c r="A459" s="1">
         <f t="shared" si="3"/>
         <v>457</v>
@@ -23437,7 +23430,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="460" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:12">
       <c r="A460" s="1">
         <f t="shared" si="3"/>
         <v>458</v>
@@ -23473,7 +23466,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="461" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:12">
       <c r="A461" s="1">
         <f t="shared" si="3"/>
         <v>459</v>
@@ -23509,7 +23502,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="462" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:12">
       <c r="A462" s="1">
         <f t="shared" si="3"/>
         <v>460</v>
@@ -23545,7 +23538,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:12">
       <c r="A463" s="1">
         <f t="shared" si="3"/>
         <v>461</v>
@@ -23581,7 +23574,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="464" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:12">
       <c r="A464" s="1">
         <f t="shared" si="3"/>
         <v>462</v>
@@ -23617,7 +23610,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:12">
       <c r="A465" s="1">
         <f t="shared" si="3"/>
         <v>463</v>
@@ -23653,7 +23646,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:12">
       <c r="A466" s="1">
         <f t="shared" si="3"/>
         <v>464</v>
@@ -23686,7 +23679,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:12">
       <c r="A467" s="1">
         <f t="shared" si="3"/>
         <v>465</v>
@@ -23722,7 +23715,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:12">
       <c r="A468" s="1">
         <f t="shared" si="3"/>
         <v>466</v>
@@ -23755,7 +23748,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:12">
       <c r="A469" s="1">
         <f t="shared" si="3"/>
         <v>467</v>
@@ -23791,7 +23784,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:12">
       <c r="A470" s="1">
         <f t="shared" si="3"/>
         <v>468</v>
@@ -23827,7 +23820,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:12">
       <c r="A471" s="1">
         <f t="shared" si="3"/>
         <v>469</v>
@@ -23860,7 +23853,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="472" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:12">
       <c r="A472" s="1">
         <f t="shared" si="3"/>
         <v>470</v>
@@ -23893,7 +23886,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:12">
       <c r="A473" s="1">
         <f t="shared" si="3"/>
         <v>471</v>
@@ -23929,7 +23922,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:12">
       <c r="A474" s="1">
         <f t="shared" si="3"/>
         <v>472</v>
@@ -23965,7 +23958,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:12">
       <c r="A475" s="1">
         <f t="shared" si="3"/>
         <v>473</v>
@@ -24001,7 +23994,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:12">
       <c r="A476" s="1">
         <f t="shared" si="3"/>
         <v>474</v>
@@ -24034,7 +24027,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:12">
       <c r="A477" s="1">
         <f t="shared" si="3"/>
         <v>475</v>
@@ -24070,7 +24063,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="478" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:12">
       <c r="A478" s="1">
         <f t="shared" si="3"/>
         <v>476</v>
@@ -24106,7 +24099,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:12">
       <c r="A479" s="1">
         <f t="shared" si="3"/>
         <v>477</v>
@@ -24139,7 +24132,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="480" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:12">
       <c r="A480" s="1">
         <f t="shared" si="3"/>
         <v>478</v>
@@ -24175,7 +24168,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:12">
       <c r="A481" s="1">
         <f t="shared" si="3"/>
         <v>479</v>
@@ -24211,7 +24204,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:12">
       <c r="A482" s="1">
         <f t="shared" si="3"/>
         <v>480</v>
@@ -24247,7 +24240,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:12">
       <c r="A483" s="1">
         <f t="shared" si="3"/>
         <v>481</v>
@@ -24280,7 +24273,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:12">
       <c r="A484" s="1">
         <f t="shared" si="3"/>
         <v>482</v>
@@ -24316,7 +24309,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:12">
       <c r="A485" s="1">
         <f t="shared" si="3"/>
         <v>483</v>
@@ -24352,7 +24345,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:12">
       <c r="A486" s="1">
         <f t="shared" si="3"/>
         <v>484</v>
@@ -24388,7 +24381,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:12">
       <c r="A487" s="1">
         <f t="shared" si="3"/>
         <v>485</v>
@@ -24424,7 +24417,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:12">
       <c r="A488" s="1">
         <f t="shared" si="3"/>
         <v>486</v>
@@ -24460,7 +24453,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:12">
       <c r="A489" s="1">
         <f t="shared" si="3"/>
         <v>487</v>
@@ -24493,7 +24486,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:12">
       <c r="A490" s="1">
         <f t="shared" si="3"/>
         <v>488</v>
@@ -24529,7 +24522,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:12">
       <c r="A491" s="1">
         <f t="shared" si="3"/>
         <v>489</v>
@@ -24565,7 +24558,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:12">
       <c r="A492" s="1">
         <f t="shared" si="3"/>
         <v>490</v>
@@ -24601,7 +24594,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="493" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:12">
       <c r="A493" s="1">
         <f t="shared" si="3"/>
         <v>491</v>
@@ -24637,7 +24630,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="494" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:12">
       <c r="A494" s="1">
         <f t="shared" si="3"/>
         <v>492</v>
@@ -24673,7 +24666,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="495" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:12">
       <c r="A495" s="1">
         <f t="shared" si="3"/>
         <v>493</v>
@@ -24706,7 +24699,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:12">
       <c r="A496" s="1">
         <f t="shared" si="3"/>
         <v>494</v>
@@ -24742,7 +24735,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="497" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:12">
       <c r="A497" s="1">
         <f t="shared" si="3"/>
         <v>495</v>
@@ -24775,7 +24768,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="498" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:12">
       <c r="A498" s="1">
         <f t="shared" si="3"/>
         <v>496</v>
@@ -24811,7 +24804,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="499" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:12">
       <c r="A499" s="1">
         <f t="shared" si="3"/>
         <v>497</v>
@@ -24844,7 +24837,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="500" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:12">
       <c r="A500" s="1">
         <f t="shared" si="3"/>
         <v>498</v>
@@ -24877,7 +24870,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="501" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:12">
       <c r="A501" s="1">
         <f t="shared" si="3"/>
         <v>499</v>
@@ -24913,7 +24906,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="502" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:12">
       <c r="A502" s="1">
         <f t="shared" si="3"/>
         <v>500</v>
@@ -24949,7 +24942,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="503" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:12">
       <c r="A503" s="1">
         <f t="shared" si="3"/>
         <v>501</v>
@@ -24985,7 +24978,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="504" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:12">
       <c r="A504" s="1">
         <f t="shared" si="3"/>
         <v>502</v>
@@ -25021,7 +25014,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="505" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:12">
       <c r="A505" s="1">
         <f t="shared" si="3"/>
         <v>503</v>
@@ -25057,7 +25050,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="506" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:12">
       <c r="A506" s="1">
         <f t="shared" si="3"/>
         <v>504</v>
@@ -25090,7 +25083,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="507" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:12">
       <c r="A507" s="1">
         <f t="shared" si="3"/>
         <v>505</v>
@@ -25126,7 +25119,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="508" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:12">
       <c r="A508" s="1">
         <f t="shared" si="3"/>
         <v>506</v>
@@ -25162,7 +25155,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="509" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:12">
       <c r="A509" s="1">
         <f t="shared" si="3"/>
         <v>507</v>
@@ -25195,7 +25188,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="510" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:12">
       <c r="A510" s="1">
         <f t="shared" si="3"/>
         <v>508</v>
@@ -25228,7 +25221,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="511" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:12">
       <c r="A511" s="1">
         <f t="shared" ref="A511:A574" si="4">A510+1</f>
         <v>509</v>
@@ -25261,7 +25254,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="512" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:12">
       <c r="A512" s="1">
         <f t="shared" si="4"/>
         <v>510</v>
@@ -25297,7 +25290,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="513" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:12">
       <c r="A513" s="1">
         <f t="shared" si="4"/>
         <v>511</v>
@@ -25333,7 +25326,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="514" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:12">
       <c r="A514" s="1">
         <f t="shared" si="4"/>
         <v>512</v>
@@ -25366,7 +25359,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="515" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:12">
       <c r="A515" s="1">
         <f t="shared" si="4"/>
         <v>513</v>
@@ -25399,7 +25392,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="516" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:12">
       <c r="A516" s="1">
         <f t="shared" si="4"/>
         <v>514</v>
@@ -25432,7 +25425,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="517" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:12">
       <c r="A517" s="1">
         <f t="shared" si="4"/>
         <v>515</v>
@@ -25468,7 +25461,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="518" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:12">
       <c r="A518" s="1">
         <f t="shared" si="4"/>
         <v>516</v>
@@ -25504,7 +25497,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="519" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:12">
       <c r="A519" s="1">
         <f t="shared" si="4"/>
         <v>517</v>
@@ -25537,7 +25530,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="520" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:12">
       <c r="A520" s="1">
         <f t="shared" si="4"/>
         <v>518</v>
@@ -25570,7 +25563,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="521" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:12">
       <c r="A521" s="1">
         <f t="shared" si="4"/>
         <v>519</v>
@@ -25603,7 +25596,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="522" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:12">
       <c r="A522" s="1">
         <f t="shared" si="4"/>
         <v>520</v>
@@ -25639,7 +25632,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="523" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:12">
       <c r="A523" s="1">
         <f t="shared" si="4"/>
         <v>521</v>
@@ -25672,7 +25665,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="524" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:12">
       <c r="A524" s="1">
         <f t="shared" si="4"/>
         <v>522</v>
@@ -25708,7 +25701,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="525" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:12">
       <c r="A525" s="1">
         <f t="shared" si="4"/>
         <v>523</v>
@@ -25744,7 +25737,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="526" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:12">
       <c r="A526" s="1">
         <f t="shared" si="4"/>
         <v>524</v>
@@ -25777,7 +25770,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="527" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:12">
       <c r="A527" s="1">
         <f t="shared" si="4"/>
         <v>525</v>
@@ -25813,7 +25806,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="528" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:12">
       <c r="A528" s="1">
         <f t="shared" si="4"/>
         <v>526</v>
@@ -25846,7 +25839,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="529" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:12">
       <c r="A529" s="1">
         <f t="shared" si="4"/>
         <v>527</v>
@@ -25882,7 +25875,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="530" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:12">
       <c r="A530" s="1">
         <f t="shared" si="4"/>
         <v>528</v>
@@ -25915,7 +25908,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="531" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:12">
       <c r="A531" s="1">
         <f t="shared" si="4"/>
         <v>529</v>
@@ -25948,7 +25941,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="532" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:12">
       <c r="A532" s="1">
         <f t="shared" si="4"/>
         <v>530</v>
@@ -25984,7 +25977,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="533" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:12">
       <c r="A533" s="1">
         <f t="shared" si="4"/>
         <v>531</v>
@@ -26020,7 +26013,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="534" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:12">
       <c r="A534" s="1">
         <f t="shared" si="4"/>
         <v>532</v>
@@ -26053,7 +26046,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="535" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:12">
       <c r="A535" s="1">
         <f t="shared" si="4"/>
         <v>533</v>
@@ -26089,7 +26082,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="536" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:12">
       <c r="A536" s="1">
         <f t="shared" si="4"/>
         <v>534</v>
@@ -26125,7 +26118,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="537" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:12">
       <c r="A537" s="1">
         <f t="shared" si="4"/>
         <v>535</v>
@@ -26161,7 +26154,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="538" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:12">
       <c r="A538" s="1">
         <f t="shared" si="4"/>
         <v>536</v>
@@ -26197,7 +26190,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="539" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:12">
       <c r="A539" s="1">
         <f t="shared" si="4"/>
         <v>537</v>
@@ -26233,7 +26226,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="540" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:12">
       <c r="A540" s="1">
         <f t="shared" si="4"/>
         <v>538</v>
@@ -26269,7 +26262,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="541" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:12">
       <c r="A541" s="1">
         <f t="shared" si="4"/>
         <v>539</v>
@@ -26302,7 +26295,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="542" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:12">
       <c r="A542" s="1">
         <f t="shared" si="4"/>
         <v>540</v>
@@ -26338,7 +26331,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="543" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:12">
       <c r="A543" s="1">
         <f t="shared" si="4"/>
         <v>541</v>
@@ -26371,7 +26364,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="544" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:12">
       <c r="A544" s="1">
         <f t="shared" si="4"/>
         <v>542</v>
@@ -26407,7 +26400,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="545" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:12">
       <c r="A545" s="1">
         <f t="shared" si="4"/>
         <v>543</v>
@@ -26440,7 +26433,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="546" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:12">
       <c r="A546" s="1">
         <f t="shared" si="4"/>
         <v>544</v>
@@ -26476,7 +26469,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="547" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:12">
       <c r="A547" s="1">
         <f t="shared" si="4"/>
         <v>545</v>
@@ -26509,7 +26502,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="548" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:12">
       <c r="A548" s="1">
         <f t="shared" si="4"/>
         <v>546</v>
@@ -26542,7 +26535,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="549" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:12">
       <c r="A549" s="1">
         <f t="shared" si="4"/>
         <v>547</v>
@@ -26578,7 +26571,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="550" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:12">
       <c r="A550" s="1">
         <f t="shared" si="4"/>
         <v>548</v>
@@ -26614,7 +26607,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="551" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:12">
       <c r="A551" s="1">
         <f t="shared" si="4"/>
         <v>549</v>
@@ -26650,7 +26643,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="552" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:12">
       <c r="A552" s="1">
         <f t="shared" si="4"/>
         <v>550</v>
@@ -26686,7 +26679,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="553" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:12">
       <c r="A553" s="1">
         <f t="shared" si="4"/>
         <v>551</v>
@@ -26719,7 +26712,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="554" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:12">
       <c r="A554" s="1">
         <f t="shared" si="4"/>
         <v>552</v>
@@ -26752,7 +26745,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="555" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:12">
       <c r="A555" s="1">
         <f t="shared" si="4"/>
         <v>553</v>
@@ -26788,7 +26781,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="556" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:12">
       <c r="A556" s="1">
         <f t="shared" si="4"/>
         <v>554</v>
@@ -26824,7 +26817,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="557" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:12">
       <c r="A557" s="1">
         <f t="shared" si="4"/>
         <v>555</v>
@@ -26860,7 +26853,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="558" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:12">
       <c r="A558" s="1">
         <f t="shared" si="4"/>
         <v>556</v>
@@ -26893,7 +26886,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="559" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:12">
       <c r="A559" s="1">
         <f t="shared" si="4"/>
         <v>557</v>
@@ -26929,7 +26922,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="560" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:12">
       <c r="A560" s="1">
         <f t="shared" si="4"/>
         <v>558</v>
@@ -26962,7 +26955,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="561" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:12">
       <c r="A561" s="1">
         <f t="shared" si="4"/>
         <v>559</v>
@@ -26998,7 +26991,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="562" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:12">
       <c r="A562" s="1">
         <f t="shared" si="4"/>
         <v>560</v>
@@ -27034,7 +27027,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="563" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:12">
       <c r="A563" s="1">
         <f t="shared" si="4"/>
         <v>561</v>
@@ -27070,7 +27063,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="564" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:12">
       <c r="A564" s="1">
         <f t="shared" si="4"/>
         <v>562</v>
@@ -27106,7 +27099,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="565" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:12">
       <c r="A565" s="1">
         <f t="shared" si="4"/>
         <v>563</v>
@@ -27142,7 +27135,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="566" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:12">
       <c r="A566" s="1">
         <f t="shared" si="4"/>
         <v>564</v>
@@ -27178,7 +27171,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="567" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:12">
       <c r="A567" s="1">
         <f t="shared" si="4"/>
         <v>565</v>
@@ -27211,7 +27204,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="568" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:12">
       <c r="A568" s="1">
         <f t="shared" si="4"/>
         <v>566</v>
@@ -27247,7 +27240,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="569" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:12">
       <c r="A569" s="1">
         <f t="shared" si="4"/>
         <v>567</v>
@@ -27280,7 +27273,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="570" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:12">
       <c r="A570" s="1">
         <f t="shared" si="4"/>
         <v>568</v>
@@ -27316,7 +27309,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="571" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:12">
       <c r="A571" s="1">
         <f t="shared" si="4"/>
         <v>569</v>
@@ -27352,7 +27345,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="572" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:12">
       <c r="A572" s="1">
         <f t="shared" si="4"/>
         <v>570</v>
@@ -27385,7 +27378,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="573" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:12">
       <c r="A573" s="1">
         <f t="shared" si="4"/>
         <v>571</v>
@@ -27418,7 +27411,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="574" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:12">
       <c r="A574" s="1">
         <f t="shared" si="4"/>
         <v>572</v>
@@ -27454,7 +27447,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="575" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:12">
       <c r="A575" s="1">
         <f t="shared" ref="A575:A638" si="5">A574+1</f>
         <v>573</v>
@@ -27490,7 +27483,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="576" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:12">
       <c r="A576" s="1">
         <f t="shared" si="5"/>
         <v>574</v>
@@ -27526,7 +27519,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="577" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:12">
       <c r="A577" s="1">
         <f t="shared" si="5"/>
         <v>575</v>
@@ -27562,7 +27555,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="578" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:12">
       <c r="A578" s="1">
         <f t="shared" si="5"/>
         <v>576</v>
@@ -27598,7 +27591,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="579" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:12">
       <c r="A579" s="1">
         <f t="shared" si="5"/>
         <v>577</v>
@@ -27631,7 +27624,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="580" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:12">
       <c r="A580" s="1">
         <f t="shared" si="5"/>
         <v>578</v>
@@ -27664,7 +27657,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="581" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:12">
       <c r="A581" s="1">
         <f t="shared" si="5"/>
         <v>579</v>
@@ -27697,7 +27690,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="582" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:12">
       <c r="A582" s="1">
         <f t="shared" si="5"/>
         <v>580</v>
@@ -27730,7 +27723,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="583" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:12">
       <c r="A583" s="1">
         <f t="shared" si="5"/>
         <v>581</v>
@@ -27763,7 +27756,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="584" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:12">
       <c r="A584" s="1">
         <f t="shared" si="5"/>
         <v>582</v>
@@ -27796,7 +27789,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="585" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:12">
       <c r="A585" s="1">
         <f t="shared" si="5"/>
         <v>583</v>
@@ -27832,7 +27825,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="586" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:12">
       <c r="A586" s="1">
         <f t="shared" si="5"/>
         <v>584</v>
@@ -27868,7 +27861,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="587" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:12">
       <c r="A587" s="1">
         <f t="shared" si="5"/>
         <v>585</v>
@@ -27904,7 +27897,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="588" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:12">
       <c r="A588" s="1">
         <f t="shared" si="5"/>
         <v>586</v>
@@ -27940,7 +27933,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="589" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:12">
       <c r="A589" s="1">
         <f t="shared" si="5"/>
         <v>587</v>
@@ -27976,7 +27969,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="590" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:12">
       <c r="A590" s="1">
         <f t="shared" si="5"/>
         <v>588</v>
@@ -28012,7 +28005,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="591" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:12">
       <c r="A591" s="1">
         <f t="shared" si="5"/>
         <v>589</v>
@@ -28045,7 +28038,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="592" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:12">
       <c r="A592" s="1">
         <f t="shared" si="5"/>
         <v>590</v>
@@ -28081,7 +28074,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="593" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:12">
       <c r="A593" s="1">
         <f t="shared" si="5"/>
         <v>591</v>
@@ -28117,7 +28110,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="594" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:12">
       <c r="A594" s="1">
         <f t="shared" si="5"/>
         <v>592</v>
@@ -28150,7 +28143,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="595" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:12">
       <c r="A595" s="1">
         <f t="shared" si="5"/>
         <v>593</v>
@@ -28186,7 +28179,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="596" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:12">
       <c r="A596" s="1">
         <f t="shared" si="5"/>
         <v>594</v>
@@ -28222,7 +28215,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="597" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:12">
       <c r="A597" s="1">
         <f t="shared" si="5"/>
         <v>595</v>
@@ -28258,7 +28251,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="598" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:12">
       <c r="A598" s="1">
         <f t="shared" si="5"/>
         <v>596</v>
@@ -28291,7 +28284,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="599" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:12">
       <c r="A599" s="1">
         <f t="shared" si="5"/>
         <v>597</v>
@@ -28327,7 +28320,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="600" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:12">
       <c r="A600" s="1">
         <f t="shared" si="5"/>
         <v>598</v>
@@ -28363,7 +28356,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="601" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:12">
       <c r="A601" s="1">
         <f t="shared" si="5"/>
         <v>599</v>
@@ -28396,7 +28389,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="602" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:12">
       <c r="A602" s="1">
         <f t="shared" si="5"/>
         <v>600</v>
@@ -28429,7 +28422,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="603" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:12">
       <c r="A603" s="1">
         <f t="shared" si="5"/>
         <v>601</v>
@@ -28465,7 +28458,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="604" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:12">
       <c r="A604" s="1">
         <f t="shared" si="5"/>
         <v>602</v>
@@ -28501,7 +28494,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="605" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:12">
       <c r="A605" s="1">
         <f t="shared" si="5"/>
         <v>603</v>
@@ -28534,7 +28527,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="606" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:12">
       <c r="A606" s="1">
         <f t="shared" si="5"/>
         <v>604</v>
@@ -28570,7 +28563,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="607" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:12">
       <c r="A607" s="1">
         <f t="shared" si="5"/>
         <v>605</v>
@@ -28606,7 +28599,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="608" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:12">
       <c r="A608" s="1">
         <f t="shared" si="5"/>
         <v>606</v>
@@ -28639,7 +28632,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="609" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:12">
       <c r="A609" s="1">
         <f t="shared" si="5"/>
         <v>607</v>
@@ -28672,7 +28665,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="610" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:12">
       <c r="A610" s="1">
         <f t="shared" si="5"/>
         <v>608</v>
@@ -28708,7 +28701,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="611" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:12">
       <c r="A611" s="1">
         <f t="shared" si="5"/>
         <v>609</v>
@@ -28744,7 +28737,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="612" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:12">
       <c r="A612" s="1">
         <f t="shared" si="5"/>
         <v>610</v>
@@ -28777,7 +28770,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="613" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:12">
       <c r="A613" s="1">
         <f t="shared" si="5"/>
         <v>611</v>
@@ -28813,7 +28806,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="614" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:12">
       <c r="A614" s="1">
         <f t="shared" si="5"/>
         <v>612</v>
@@ -28846,7 +28839,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="615" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:12">
       <c r="A615" s="1">
         <f t="shared" si="5"/>
         <v>613</v>
@@ -28882,7 +28875,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="616" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:12">
       <c r="A616" s="1">
         <f t="shared" si="5"/>
         <v>614</v>
@@ -28915,7 +28908,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="617" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:12">
       <c r="A617" s="1">
         <f t="shared" si="5"/>
         <v>615</v>
@@ -28951,7 +28944,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="618" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:12">
       <c r="A618" s="1">
         <f t="shared" si="5"/>
         <v>616</v>
@@ -28984,7 +28977,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="619" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:12">
       <c r="A619" s="1">
         <f t="shared" si="5"/>
         <v>617</v>
@@ -29017,7 +29010,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="620" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:12">
       <c r="A620" s="1">
         <f t="shared" si="5"/>
         <v>618</v>
@@ -29050,7 +29043,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="621" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:12">
       <c r="A621" s="1">
         <f t="shared" si="5"/>
         <v>619</v>
@@ -29086,7 +29079,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="622" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:12">
       <c r="A622" s="1">
         <f t="shared" si="5"/>
         <v>620</v>
@@ -29122,7 +29115,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="623" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:12">
       <c r="A623" s="1">
         <f t="shared" si="5"/>
         <v>621</v>
@@ -29155,7 +29148,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="624" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:12">
       <c r="A624" s="1">
         <f t="shared" si="5"/>
         <v>622</v>
@@ -29191,7 +29184,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="625" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:12">
       <c r="A625" s="1">
         <f t="shared" si="5"/>
         <v>623</v>
@@ -29227,7 +29220,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="626" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:12">
       <c r="A626" s="1">
         <f t="shared" si="5"/>
         <v>624</v>
@@ -29263,7 +29256,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="627" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:12">
       <c r="A627" s="1">
         <f t="shared" si="5"/>
         <v>625</v>
@@ -29299,7 +29292,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="628" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:12">
       <c r="A628" s="1">
         <f t="shared" si="5"/>
         <v>626</v>
@@ -29332,7 +29325,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="629" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:12">
       <c r="A629" s="1">
         <f t="shared" si="5"/>
         <v>627</v>
@@ -29368,7 +29361,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="630" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:12">
       <c r="A630" s="1">
         <f t="shared" si="5"/>
         <v>628</v>
@@ -29401,7 +29394,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="631" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:12">
       <c r="A631" s="1">
         <f t="shared" si="5"/>
         <v>629</v>
@@ -29437,7 +29430,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="632" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:12">
       <c r="A632" s="1">
         <f t="shared" si="5"/>
         <v>630</v>
@@ -29470,7 +29463,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="633" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:12">
       <c r="A633" s="1">
         <f t="shared" si="5"/>
         <v>631</v>
@@ -29506,7 +29499,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="634" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:12">
       <c r="A634" s="1">
         <f t="shared" si="5"/>
         <v>632</v>
@@ -29539,7 +29532,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="635" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:12">
       <c r="A635" s="1">
         <f t="shared" si="5"/>
         <v>633</v>
@@ -29575,7 +29568,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="636" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:12">
       <c r="A636" s="1">
         <f t="shared" si="5"/>
         <v>634</v>
@@ -29611,7 +29604,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="637" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:12">
       <c r="A637" s="1">
         <f t="shared" si="5"/>
         <v>635</v>
@@ -29647,7 +29640,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="638" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:12">
       <c r="A638" s="1">
         <f t="shared" si="5"/>
         <v>636</v>
@@ -29683,7 +29676,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="639" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:12">
       <c r="A639" s="1">
         <f t="shared" ref="A639:A702" si="6">A638+1</f>
         <v>637</v>
@@ -29719,7 +29712,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="640" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:12">
       <c r="A640" s="1">
         <f t="shared" si="6"/>
         <v>638</v>
@@ -29755,7 +29748,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="641" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:12">
       <c r="A641" s="1">
         <f t="shared" si="6"/>
         <v>639</v>
@@ -29791,7 +29784,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="642" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:12">
       <c r="A642" s="1">
         <f t="shared" si="6"/>
         <v>640</v>
@@ -29827,7 +29820,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="643" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:12">
       <c r="A643" s="1">
         <f t="shared" si="6"/>
         <v>641</v>
@@ -29863,7 +29856,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="644" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:12">
       <c r="A644" s="1">
         <f t="shared" si="6"/>
         <v>642</v>
@@ -29899,7 +29892,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="645" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:12">
       <c r="A645" s="1">
         <f t="shared" si="6"/>
         <v>643</v>
@@ -29935,7 +29928,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="646" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:12">
       <c r="A646" s="1">
         <f t="shared" si="6"/>
         <v>644</v>
@@ -29971,7 +29964,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="647" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:12">
       <c r="A647" s="1">
         <f t="shared" si="6"/>
         <v>645</v>
@@ -30007,7 +30000,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="648" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:12">
       <c r="A648" s="1">
         <f t="shared" si="6"/>
         <v>646</v>
@@ -30040,7 +30033,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="649" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:12">
       <c r="A649" s="1">
         <f t="shared" si="6"/>
         <v>647</v>
@@ -30076,7 +30069,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="650" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:12">
       <c r="A650" s="1">
         <f t="shared" si="6"/>
         <v>648</v>
@@ -30109,7 +30102,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="651" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:12">
       <c r="A651" s="1">
         <f t="shared" si="6"/>
         <v>649</v>
@@ -30142,7 +30135,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="652" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:12">
       <c r="A652" s="1">
         <f t="shared" si="6"/>
         <v>650</v>
@@ -30175,7 +30168,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="653" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:12">
       <c r="A653" s="1">
         <f t="shared" si="6"/>
         <v>651</v>
@@ -30208,7 +30201,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="654" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:12">
       <c r="A654" s="1">
         <f t="shared" si="6"/>
         <v>652</v>
@@ -30244,7 +30237,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="655" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:12">
       <c r="A655" s="1">
         <f t="shared" si="6"/>
         <v>653</v>
@@ -30280,7 +30273,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="656" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:12">
       <c r="A656" s="1">
         <f t="shared" si="6"/>
         <v>654</v>
@@ -30313,7 +30306,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="657" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:12">
       <c r="A657" s="1">
         <f t="shared" si="6"/>
         <v>655</v>
@@ -30346,7 +30339,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="658" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:12">
       <c r="A658" s="1">
         <f t="shared" si="6"/>
         <v>656</v>
@@ -30382,7 +30375,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="659" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:12">
       <c r="A659" s="1">
         <f t="shared" si="6"/>
         <v>657</v>
@@ -30418,7 +30411,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="660" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:12">
       <c r="A660" s="1">
         <f t="shared" si="6"/>
         <v>658</v>
@@ -30454,7 +30447,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="661" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:12">
       <c r="A661" s="1">
         <f t="shared" si="6"/>
         <v>659</v>
@@ -30490,7 +30483,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="662" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:12">
       <c r="A662" s="1">
         <f t="shared" si="6"/>
         <v>660</v>
@@ -30526,7 +30519,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="663" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:12">
       <c r="A663" s="1">
         <f t="shared" si="6"/>
         <v>661</v>
@@ -30559,7 +30552,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="664" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:12">
       <c r="A664" s="1">
         <f t="shared" si="6"/>
         <v>662</v>
@@ -30595,7 +30588,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="665" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:12">
       <c r="A665" s="1">
         <f t="shared" si="6"/>
         <v>663</v>
@@ -30631,7 +30624,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="666" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:12">
       <c r="A666" s="1">
         <f t="shared" si="6"/>
         <v>664</v>
@@ -30667,7 +30660,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="667" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:12">
       <c r="A667" s="1">
         <f t="shared" si="6"/>
         <v>665</v>
@@ -30703,7 +30696,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="668" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:12">
       <c r="A668" s="1">
         <f t="shared" si="6"/>
         <v>666</v>
@@ -30736,7 +30729,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="669" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:12">
       <c r="A669" s="1">
         <f t="shared" si="6"/>
         <v>667</v>
@@ -30772,7 +30765,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="670" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:12">
       <c r="A670" s="1">
         <f t="shared" si="6"/>
         <v>668</v>
@@ -30808,7 +30801,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="671" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:12">
       <c r="A671" s="1">
         <f t="shared" si="6"/>
         <v>669</v>
@@ -30841,7 +30834,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="672" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:12">
       <c r="A672" s="1">
         <f t="shared" si="6"/>
         <v>670</v>
@@ -30874,7 +30867,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="673" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:12">
       <c r="A673" s="1">
         <f t="shared" si="6"/>
         <v>671</v>
@@ -30910,7 +30903,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="674" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:12">
       <c r="A674" s="1">
         <f t="shared" si="6"/>
         <v>672</v>
@@ -30946,7 +30939,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="675" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:12">
       <c r="A675" s="1">
         <f t="shared" si="6"/>
         <v>673</v>
@@ -30982,7 +30975,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="676" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:12">
       <c r="A676" s="1">
         <f t="shared" si="6"/>
         <v>674</v>
@@ -31018,7 +31011,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="677" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:12">
       <c r="A677" s="1">
         <f t="shared" si="6"/>
         <v>675</v>
@@ -31054,7 +31047,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="678" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:12">
       <c r="A678" s="1">
         <f t="shared" si="6"/>
         <v>676</v>
@@ -31090,7 +31083,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="679" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:12">
       <c r="A679" s="1">
         <f t="shared" si="6"/>
         <v>677</v>
@@ -31123,7 +31116,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="680" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:12">
       <c r="A680" s="1">
         <f t="shared" si="6"/>
         <v>678</v>
@@ -31159,7 +31152,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="681" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:12">
       <c r="A681" s="1">
         <f t="shared" si="6"/>
         <v>679</v>
@@ -31195,7 +31188,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="682" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:12">
       <c r="A682" s="1">
         <f t="shared" si="6"/>
         <v>680</v>
@@ -31231,7 +31224,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="683" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:12">
       <c r="A683" s="1">
         <f t="shared" si="6"/>
         <v>681</v>
@@ -31267,7 +31260,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="684" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:12">
       <c r="A684" s="1">
         <f t="shared" si="6"/>
         <v>682</v>
@@ -31300,7 +31293,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="685" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:12">
       <c r="A685" s="1">
         <f t="shared" si="6"/>
         <v>683</v>
@@ -31336,7 +31329,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="686" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:12">
       <c r="A686" s="1">
         <f t="shared" si="6"/>
         <v>684</v>
@@ -31372,7 +31365,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="687" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:12">
       <c r="A687" s="1">
         <f t="shared" si="6"/>
         <v>685</v>
@@ -31408,7 +31401,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="688" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:12">
       <c r="A688" s="1">
         <f t="shared" si="6"/>
         <v>686</v>
@@ -31441,7 +31434,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="689" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:12">
       <c r="A689" s="1">
         <f t="shared" si="6"/>
         <v>687</v>
@@ -31474,7 +31467,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="690" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:12">
       <c r="A690" s="1">
         <f t="shared" si="6"/>
         <v>688</v>
@@ -31507,7 +31500,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="691" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:12">
       <c r="A691" s="1">
         <f t="shared" si="6"/>
         <v>689</v>
@@ -31543,7 +31536,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="692" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:12">
       <c r="A692" s="1">
         <f t="shared" si="6"/>
         <v>690</v>
@@ -31576,7 +31569,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="693" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:12">
       <c r="A693" s="1">
         <f t="shared" si="6"/>
         <v>691</v>
@@ -31609,7 +31602,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="694" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:12">
       <c r="A694" s="1">
         <f t="shared" si="6"/>
         <v>692</v>
@@ -31645,7 +31638,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="695" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:12">
       <c r="A695" s="1">
         <f t="shared" si="6"/>
         <v>693</v>
@@ -31678,7 +31671,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="696" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:12">
       <c r="A696" s="1">
         <f t="shared" si="6"/>
         <v>694</v>
@@ -31714,7 +31707,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="697" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:12">
       <c r="A697" s="1">
         <f t="shared" si="6"/>
         <v>695</v>
@@ -31747,7 +31740,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="698" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:12">
       <c r="A698" s="1">
         <f t="shared" si="6"/>
         <v>696</v>
@@ -31783,7 +31776,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="699" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:12">
       <c r="A699" s="1">
         <f t="shared" si="6"/>
         <v>697</v>
@@ -31816,7 +31809,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="700" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:12">
       <c r="A700" s="1">
         <f t="shared" si="6"/>
         <v>698</v>
@@ -31852,7 +31845,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="701" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:12">
       <c r="A701" s="1">
         <f t="shared" si="6"/>
         <v>699</v>
@@ -31888,7 +31881,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="702" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:12">
       <c r="A702" s="1">
         <f t="shared" si="6"/>
         <v>700</v>
@@ -31924,7 +31917,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="703" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:12">
       <c r="A703" s="1">
         <f t="shared" ref="A703:A766" si="7">A702+1</f>
         <v>701</v>
@@ -31957,7 +31950,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="704" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:12">
       <c r="A704" s="1">
         <f t="shared" si="7"/>
         <v>702</v>
@@ -31993,7 +31986,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="705" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:12">
       <c r="A705" s="1">
         <f t="shared" si="7"/>
         <v>703</v>
@@ -32029,7 +32022,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="706" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:12">
       <c r="A706" s="1">
         <f t="shared" si="7"/>
         <v>704</v>
@@ -32062,7 +32055,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="707" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:12">
       <c r="A707" s="1">
         <f t="shared" si="7"/>
         <v>705</v>
@@ -32095,7 +32088,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="708" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:12">
       <c r="A708" s="1">
         <f t="shared" si="7"/>
         <v>706</v>
@@ -32128,7 +32121,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="709" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:12">
       <c r="A709" s="1">
         <f t="shared" si="7"/>
         <v>707</v>
@@ -32164,7 +32157,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="710" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:12">
       <c r="A710" s="1">
         <f t="shared" si="7"/>
         <v>708</v>
@@ -32200,7 +32193,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="711" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:12">
       <c r="A711" s="1">
         <f t="shared" si="7"/>
         <v>709</v>
@@ -32233,7 +32226,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="712" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:12">
       <c r="A712" s="1">
         <f t="shared" si="7"/>
         <v>710</v>
@@ -32269,7 +32262,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="713" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:12">
       <c r="A713" s="1">
         <f t="shared" si="7"/>
         <v>711</v>
@@ -32302,7 +32295,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="714" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:12">
       <c r="A714" s="1">
         <f t="shared" si="7"/>
         <v>712</v>
@@ -32338,7 +32331,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="715" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:12">
       <c r="A715" s="1">
         <f t="shared" si="7"/>
         <v>713</v>
@@ -32374,7 +32367,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="716" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:12">
       <c r="A716" s="1">
         <f t="shared" si="7"/>
         <v>714</v>
@@ -32407,7 +32400,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="717" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:12">
       <c r="A717" s="1">
         <f t="shared" si="7"/>
         <v>715</v>
@@ -32443,7 +32436,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="718" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:12">
       <c r="A718" s="1">
         <f t="shared" si="7"/>
         <v>716</v>
@@ -32479,7 +32472,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="719" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:12">
       <c r="A719" s="1">
         <f t="shared" si="7"/>
         <v>717</v>
@@ -32515,7 +32508,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="720" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:12">
       <c r="A720" s="1">
         <f t="shared" si="7"/>
         <v>718</v>
@@ -32548,7 +32541,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="721" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:12">
       <c r="A721" s="1">
         <f t="shared" si="7"/>
         <v>719</v>
@@ -32581,7 +32574,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="722" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:12">
       <c r="A722" s="1">
         <f t="shared" si="7"/>
         <v>720</v>
@@ -32614,7 +32607,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="723" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:12">
       <c r="A723" s="1">
         <f t="shared" si="7"/>
         <v>721</v>
@@ -32650,7 +32643,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="724" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:12">
       <c r="A724" s="1">
         <f t="shared" si="7"/>
         <v>722</v>
@@ -32683,7 +32676,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="725" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:12">
       <c r="A725" s="1">
         <f t="shared" si="7"/>
         <v>723</v>
@@ -32719,7 +32712,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="726" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:12">
       <c r="A726" s="1">
         <f t="shared" si="7"/>
         <v>724</v>
@@ -32752,7 +32745,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="727" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:12">
       <c r="A727" s="1">
         <f t="shared" si="7"/>
         <v>725</v>
@@ -32785,7 +32778,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="728" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:12">
       <c r="A728" s="1">
         <f t="shared" si="7"/>
         <v>726</v>
@@ -32821,7 +32814,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="729" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:12">
       <c r="A729" s="1">
         <f t="shared" si="7"/>
         <v>727</v>
@@ -32857,7 +32850,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="730" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:12">
       <c r="A730" s="1">
         <f t="shared" si="7"/>
         <v>728</v>
@@ -32893,7 +32886,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="731" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:12">
       <c r="A731" s="1">
         <f t="shared" si="7"/>
         <v>729</v>
@@ -32929,7 +32922,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="732" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:12">
       <c r="A732" s="1">
         <f t="shared" si="7"/>
         <v>730</v>
@@ -32962,7 +32955,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="733" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:12">
       <c r="A733" s="1">
         <f t="shared" si="7"/>
         <v>731</v>
@@ -32998,7 +32991,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="734" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:12">
       <c r="A734" s="1">
         <f t="shared" si="7"/>
         <v>732</v>
@@ -33031,7 +33024,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="735" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:12">
       <c r="A735" s="1">
         <f t="shared" si="7"/>
         <v>733</v>
@@ -33064,7 +33057,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="736" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:12">
       <c r="A736" s="1">
         <f t="shared" si="7"/>
         <v>734</v>
@@ -33100,7 +33093,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="737" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:12">
       <c r="A737" s="1">
         <f t="shared" si="7"/>
         <v>735</v>
@@ -33136,7 +33129,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="738" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:12">
       <c r="A738" s="1">
         <f t="shared" si="7"/>
         <v>736</v>
@@ -33172,7 +33165,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="739" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:12">
       <c r="A739" s="1">
         <f t="shared" si="7"/>
         <v>737</v>
@@ -33208,7 +33201,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="740" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:12">
       <c r="A740" s="1">
         <f t="shared" si="7"/>
         <v>738</v>
@@ -33244,7 +33237,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="741" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:12">
       <c r="A741" s="1">
         <f t="shared" si="7"/>
         <v>739</v>
@@ -33280,7 +33273,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="742" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:12">
       <c r="A742" s="1">
         <f t="shared" si="7"/>
         <v>740</v>
@@ -33316,7 +33309,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="743" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:12">
       <c r="A743" s="1">
         <f t="shared" si="7"/>
         <v>741</v>
@@ -33352,7 +33345,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="744" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:12">
       <c r="A744" s="1">
         <f t="shared" si="7"/>
         <v>742</v>
@@ -33388,7 +33381,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="745" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:12">
       <c r="A745" s="1">
         <f t="shared" si="7"/>
         <v>743</v>
@@ -33421,7 +33414,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="746" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:12">
       <c r="A746" s="1">
         <f t="shared" si="7"/>
         <v>744</v>
@@ -33457,7 +33450,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="747" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:12">
       <c r="A747" s="1">
         <f t="shared" si="7"/>
         <v>745</v>
@@ -33493,7 +33486,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="748" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:12">
       <c r="A748" s="1">
         <f t="shared" si="7"/>
         <v>746</v>
@@ -33529,7 +33522,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="749" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:12">
       <c r="A749" s="1">
         <f t="shared" si="7"/>
         <v>747</v>
@@ -33565,7 +33558,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="750" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:12">
       <c r="A750" s="1">
         <f t="shared" si="7"/>
         <v>748</v>
@@ -33601,7 +33594,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="751" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:12">
       <c r="A751" s="1">
         <f t="shared" si="7"/>
         <v>749</v>
@@ -33637,7 +33630,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="752" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:12">
       <c r="A752" s="1">
         <f t="shared" si="7"/>
         <v>750</v>
@@ -33670,7 +33663,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="753" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:12">
       <c r="A753" s="1">
         <f t="shared" si="7"/>
         <v>751</v>
@@ -33703,7 +33696,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="754" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:12">
       <c r="A754" s="1">
         <f t="shared" si="7"/>
         <v>752</v>
@@ -33736,7 +33729,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="755" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:12">
       <c r="A755" s="1">
         <f t="shared" si="7"/>
         <v>753</v>
@@ -33772,7 +33765,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="756" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:12">
       <c r="A756" s="1">
         <f t="shared" si="7"/>
         <v>754</v>
@@ -33808,7 +33801,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="757" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:12">
       <c r="A757" s="1">
         <f t="shared" si="7"/>
         <v>755</v>
@@ -33844,7 +33837,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="758" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:12">
       <c r="A758" s="1">
         <f t="shared" si="7"/>
         <v>756</v>
@@ -33880,7 +33873,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="759" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:12">
       <c r="A759" s="1">
         <f t="shared" si="7"/>
         <v>757</v>
@@ -33916,7 +33909,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="760" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:12">
       <c r="A760" s="1">
         <f t="shared" si="7"/>
         <v>758</v>
@@ -33952,7 +33945,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="761" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:12">
       <c r="A761" s="1">
         <f t="shared" si="7"/>
         <v>759</v>
@@ -33985,7 +33978,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="762" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:12">
       <c r="A762" s="1">
         <f t="shared" si="7"/>
         <v>760</v>
@@ -34021,7 +34014,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="763" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:12">
       <c r="A763" s="1">
         <f t="shared" si="7"/>
         <v>761</v>
@@ -34057,7 +34050,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="764" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:12">
       <c r="A764" s="1">
         <f t="shared" si="7"/>
         <v>762</v>
@@ -34093,7 +34086,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="765" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:12">
       <c r="A765" s="1">
         <f t="shared" si="7"/>
         <v>763</v>
@@ -34129,7 +34122,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="766" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:12">
       <c r="A766" s="1">
         <f t="shared" si="7"/>
         <v>764</v>
@@ -34162,7 +34155,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="767" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:12">
       <c r="A767" s="1">
         <f t="shared" ref="A767:A830" si="8">A766+1</f>
         <v>765</v>
@@ -34198,7 +34191,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="768" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:12">
       <c r="A768" s="1">
         <f t="shared" si="8"/>
         <v>766</v>
@@ -34234,7 +34227,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="769" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:12">
       <c r="A769" s="1">
         <f t="shared" si="8"/>
         <v>767</v>
@@ -34270,7 +34263,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="770" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:12">
       <c r="A770" s="1">
         <f t="shared" si="8"/>
         <v>768</v>
@@ -34303,7 +34296,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="771" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:12">
       <c r="A771" s="1">
         <f t="shared" si="8"/>
         <v>769</v>
@@ -34339,7 +34332,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="772" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:12">
       <c r="A772" s="1">
         <f t="shared" si="8"/>
         <v>770</v>
@@ -34372,7 +34365,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="773" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:12">
       <c r="A773" s="1">
         <f t="shared" si="8"/>
         <v>771</v>
@@ -34408,7 +34401,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="774" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:12">
       <c r="A774" s="1">
         <f t="shared" si="8"/>
         <v>772</v>
@@ -34441,7 +34434,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="775" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:12">
       <c r="A775" s="1">
         <f t="shared" si="8"/>
         <v>773</v>
@@ -34477,7 +34470,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="776" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:12">
       <c r="A776" s="1">
         <f t="shared" si="8"/>
         <v>774</v>
@@ -34513,7 +34506,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="777" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:12">
       <c r="A777" s="1">
         <f t="shared" si="8"/>
         <v>775</v>
@@ -34546,7 +34539,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="778" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:12">
       <c r="A778" s="1">
         <f t="shared" si="8"/>
         <v>776</v>
@@ -34582,7 +34575,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="779" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:12">
       <c r="A779" s="1">
         <f t="shared" si="8"/>
         <v>777</v>
@@ -34615,7 +34608,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="780" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:12">
       <c r="A780" s="1">
         <f t="shared" si="8"/>
         <v>778</v>
@@ -34648,7 +34641,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="781" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:12">
       <c r="A781" s="1">
         <f t="shared" si="8"/>
         <v>779</v>
@@ -34684,7 +34677,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="782" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:12">
       <c r="A782" s="1">
         <f t="shared" si="8"/>
         <v>780</v>
@@ -34720,7 +34713,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="783" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:12">
       <c r="A783" s="1">
         <f t="shared" si="8"/>
         <v>781</v>
@@ -34756,7 +34749,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="784" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:12">
       <c r="A784" s="1">
         <f t="shared" si="8"/>
         <v>782</v>
@@ -34792,7 +34785,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="785" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:12">
       <c r="A785" s="1">
         <f t="shared" si="8"/>
         <v>783</v>
@@ -34825,7 +34818,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="786" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:12">
       <c r="A786" s="1">
         <f t="shared" si="8"/>
         <v>784</v>
@@ -34861,7 +34854,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="787" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:12">
       <c r="A787" s="1">
         <f t="shared" si="8"/>
         <v>785</v>
@@ -34897,7 +34890,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="788" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:12">
       <c r="A788" s="1">
         <f t="shared" si="8"/>
         <v>786</v>
@@ -34930,7 +34923,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="789" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:12">
       <c r="A789" s="1">
         <f t="shared" si="8"/>
         <v>787</v>
@@ -34963,7 +34956,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="790" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:12">
       <c r="A790" s="1">
         <f t="shared" si="8"/>
         <v>788</v>
@@ -34996,7 +34989,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="791" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:12">
       <c r="A791" s="1">
         <f t="shared" si="8"/>
         <v>789</v>
@@ -35029,7 +35022,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="792" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:12">
       <c r="A792" s="1">
         <f t="shared" si="8"/>
         <v>790</v>
@@ -35065,7 +35058,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="793" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:12">
       <c r="A793" s="1">
         <f t="shared" si="8"/>
         <v>791</v>
@@ -35101,7 +35094,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="794" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:12">
       <c r="A794" s="1">
         <f t="shared" si="8"/>
         <v>792</v>
@@ -35137,7 +35130,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="795" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:12">
       <c r="A795" s="1">
         <f t="shared" si="8"/>
         <v>793</v>
@@ -35173,7 +35166,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="796" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:12">
       <c r="A796" s="1">
         <f t="shared" si="8"/>
         <v>794</v>
@@ -35206,7 +35199,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="797" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:12">
       <c r="A797" s="1">
         <f t="shared" si="8"/>
         <v>795</v>
@@ -35242,7 +35235,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="798" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:12">
       <c r="A798" s="1">
         <f t="shared" si="8"/>
         <v>796</v>
@@ -35278,7 +35271,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="799" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:12">
       <c r="A799" s="1">
         <f t="shared" si="8"/>
         <v>797</v>
@@ -35311,7 +35304,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="800" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:12">
       <c r="A800" s="1">
         <f t="shared" si="8"/>
         <v>798</v>
@@ -35344,7 +35337,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="801" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:12">
       <c r="A801" s="1">
         <f t="shared" si="8"/>
         <v>799</v>
@@ -35377,7 +35370,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="802" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:12">
       <c r="A802" s="1">
         <f t="shared" si="8"/>
         <v>800</v>
@@ -35413,7 +35406,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="803" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:12">
       <c r="A803" s="1">
         <f t="shared" si="8"/>
         <v>801</v>
@@ -35446,7 +35439,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="804" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:12">
       <c r="A804" s="1">
         <f t="shared" si="8"/>
         <v>802</v>
@@ -35482,7 +35475,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="805" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:12">
       <c r="A805" s="1">
         <f t="shared" si="8"/>
         <v>803</v>
@@ -35518,7 +35511,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="806" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:12">
       <c r="A806" s="1">
         <f t="shared" si="8"/>
         <v>804</v>
@@ -35554,7 +35547,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="807" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:12">
       <c r="A807" s="1">
         <f t="shared" si="8"/>
         <v>805</v>
@@ -35590,7 +35583,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="808" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:12">
       <c r="A808" s="1">
         <f t="shared" si="8"/>
         <v>806</v>
@@ -35626,7 +35619,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="809" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:12">
       <c r="A809" s="1">
         <f t="shared" si="8"/>
         <v>807</v>
@@ -35662,7 +35655,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="810" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:12">
       <c r="A810" s="1">
         <f t="shared" si="8"/>
         <v>808</v>
@@ -35695,7 +35688,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="811" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:12">
       <c r="A811" s="1">
         <f t="shared" si="8"/>
         <v>809</v>
@@ -35731,7 +35724,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="812" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:12">
       <c r="A812" s="1">
         <f t="shared" si="8"/>
         <v>810</v>
@@ -35767,7 +35760,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="813" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:12">
       <c r="A813" s="1">
         <f t="shared" si="8"/>
         <v>811</v>
@@ -35803,7 +35796,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="814" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:12">
       <c r="A814" s="1">
         <f t="shared" si="8"/>
         <v>812</v>
@@ -35839,7 +35832,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="815" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:12">
       <c r="A815" s="1">
         <f t="shared" si="8"/>
         <v>813</v>
@@ -35872,7 +35865,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="816" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:12">
       <c r="A816" s="1">
         <f t="shared" si="8"/>
         <v>814</v>
@@ -35908,7 +35901,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="817" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:12">
       <c r="A817" s="1">
         <f t="shared" si="8"/>
         <v>815</v>
@@ -35944,7 +35937,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="818" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:12">
       <c r="A818" s="1">
         <f t="shared" si="8"/>
         <v>816</v>
@@ -35980,7 +35973,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="819" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:12">
       <c r="A819" s="1">
         <f t="shared" si="8"/>
         <v>817</v>
@@ -36016,7 +36009,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="820" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:12">
       <c r="A820" s="1">
         <f t="shared" si="8"/>
         <v>818</v>
@@ -36052,7 +36045,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="821" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:12">
       <c r="A821" s="1">
         <f t="shared" si="8"/>
         <v>819</v>
@@ -36088,7 +36081,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="822" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:12">
       <c r="A822" s="1">
         <f t="shared" si="8"/>
         <v>820</v>
@@ -36124,7 +36117,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="823" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:12">
       <c r="A823" s="1">
         <f t="shared" si="8"/>
         <v>821</v>
@@ -36160,7 +36153,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="824" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:12">
       <c r="A824" s="1">
         <f t="shared" si="8"/>
         <v>822</v>
@@ -36196,7 +36189,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="825" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:12">
       <c r="A825" s="1">
         <f t="shared" si="8"/>
         <v>823</v>
@@ -36232,7 +36225,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="826" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:12">
       <c r="A826" s="1">
         <f t="shared" si="8"/>
         <v>824</v>
@@ -36265,7 +36258,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="827" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:12">
       <c r="A827" s="1">
         <f t="shared" si="8"/>
         <v>825</v>
@@ -36298,7 +36291,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="828" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:12">
       <c r="A828" s="1">
         <f t="shared" si="8"/>
         <v>826</v>
@@ -36331,7 +36324,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="829" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:12">
       <c r="A829" s="1">
         <f t="shared" si="8"/>
         <v>827</v>
@@ -36367,7 +36360,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="830" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:12">
       <c r="A830" s="1">
         <f t="shared" si="8"/>
         <v>828</v>
@@ -36403,7 +36396,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="831" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:12">
       <c r="A831" s="1">
         <f t="shared" ref="A831:A876" si="9">A830+1</f>
         <v>829</v>
@@ -36439,7 +36432,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="832" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:12">
       <c r="A832" s="1">
         <f t="shared" si="9"/>
         <v>830</v>
@@ -36472,7 +36465,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="833" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:12">
       <c r="A833" s="1">
         <f t="shared" si="9"/>
         <v>831</v>
@@ -36505,7 +36498,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="834" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:12">
       <c r="A834" s="1">
         <f t="shared" si="9"/>
         <v>832</v>
@@ -36541,7 +36534,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="835" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:12">
       <c r="A835" s="1">
         <f t="shared" si="9"/>
         <v>833</v>
@@ -36574,7 +36567,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="836" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:12">
       <c r="A836" s="1">
         <f t="shared" si="9"/>
         <v>834</v>
@@ -36607,7 +36600,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="837" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:12">
       <c r="A837" s="1">
         <f t="shared" si="9"/>
         <v>835</v>
@@ -36643,7 +36636,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="838" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:12">
       <c r="A838" s="1">
         <f t="shared" si="9"/>
         <v>836</v>
@@ -36679,7 +36672,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="839" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:12">
       <c r="A839" s="1">
         <f t="shared" si="9"/>
         <v>837</v>
@@ -36712,7 +36705,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="840" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:12">
       <c r="A840" s="1">
         <f t="shared" si="9"/>
         <v>838</v>
@@ -36748,7 +36741,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="841" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:12">
       <c r="A841" s="1">
         <f t="shared" si="9"/>
         <v>839</v>
@@ -36784,7 +36777,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="842" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:12">
       <c r="A842" s="1">
         <f t="shared" si="9"/>
         <v>840</v>
@@ -36817,7 +36810,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="843" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:12">
       <c r="A843" s="1">
         <f t="shared" si="9"/>
         <v>841</v>
@@ -36850,7 +36843,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="844" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:12">
       <c r="A844" s="1">
         <f t="shared" si="9"/>
         <v>842</v>
@@ -36886,7 +36879,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="845" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:12">
       <c r="A845" s="1">
         <f t="shared" si="9"/>
         <v>843</v>
@@ -36919,7 +36912,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="846" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:12">
       <c r="A846" s="1">
         <f t="shared" si="9"/>
         <v>844</v>
@@ -36952,7 +36945,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="847" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:12">
       <c r="A847" s="1">
         <f t="shared" si="9"/>
         <v>845</v>
@@ -36985,7 +36978,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="848" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:12">
       <c r="A848" s="1">
         <f t="shared" si="9"/>
         <v>846</v>
@@ -37018,7 +37011,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="849" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:12">
       <c r="A849" s="1">
         <f t="shared" si="9"/>
         <v>847</v>
@@ -37054,7 +37047,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="850" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:12">
       <c r="A850" s="1">
         <f t="shared" si="9"/>
         <v>848</v>
@@ -37090,7 +37083,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="851" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:12">
       <c r="A851" s="1">
         <f t="shared" si="9"/>
         <v>849</v>
@@ -37126,7 +37119,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="852" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:12">
       <c r="A852" s="1">
         <f t="shared" si="9"/>
         <v>850</v>
@@ -37162,7 +37155,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="853" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:12">
       <c r="A853" s="1">
         <f t="shared" si="9"/>
         <v>851</v>
@@ -37198,7 +37191,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="854" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:12">
       <c r="A854" s="1">
         <f t="shared" si="9"/>
         <v>852</v>
@@ -37234,7 +37227,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="855" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:12">
       <c r="A855" s="1">
         <f t="shared" si="9"/>
         <v>853</v>
@@ -37270,7 +37263,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="856" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:12">
       <c r="A856" s="1">
         <f t="shared" si="9"/>
         <v>854</v>
@@ -37306,7 +37299,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="857" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:12">
       <c r="A857" s="1">
         <f t="shared" si="9"/>
         <v>855</v>
@@ -37339,7 +37332,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="858" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:12">
       <c r="A858" s="1">
         <f t="shared" si="9"/>
         <v>856</v>
@@ -37372,7 +37365,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="859" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:12">
       <c r="A859" s="1">
         <f t="shared" si="9"/>
         <v>857</v>
@@ -37408,7 +37401,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="860" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:12">
       <c r="A860" s="1">
         <f t="shared" si="9"/>
         <v>858</v>
@@ -37441,7 +37434,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="861" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:12">
       <c r="A861" s="1">
         <f t="shared" si="9"/>
         <v>859</v>
@@ -37474,7 +37467,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="862" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:12">
       <c r="A862" s="1">
         <f t="shared" si="9"/>
         <v>860</v>
@@ -37507,7 +37500,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="863" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:12">
       <c r="A863" s="1">
         <f t="shared" si="9"/>
         <v>861</v>
@@ -37540,7 +37533,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="864" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:12">
       <c r="A864" s="1">
         <f t="shared" si="9"/>
         <v>862</v>
@@ -37576,7 +37569,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="865" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:12">
       <c r="A865" s="1">
         <f t="shared" si="9"/>
         <v>863</v>
@@ -37609,7 +37602,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="866" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:12">
       <c r="A866" s="1">
         <f t="shared" si="9"/>
         <v>864</v>
@@ -37645,7 +37638,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="867" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:12">
       <c r="A867" s="1">
         <f t="shared" si="9"/>
         <v>865</v>
@@ -37681,7 +37674,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="868" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:12">
       <c r="A868" s="1">
         <f t="shared" si="9"/>
         <v>866</v>
@@ -37714,7 +37707,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="869" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:12">
       <c r="A869" s="1">
         <f t="shared" si="9"/>
         <v>867</v>
@@ -37747,7 +37740,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="870" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:12">
       <c r="A870" s="1">
         <f t="shared" si="9"/>
         <v>868</v>
@@ -37780,7 +37773,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="871" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:12">
       <c r="A871" s="1">
         <f t="shared" si="9"/>
         <v>869</v>
@@ -37813,7 +37806,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="872" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:12">
       <c r="A872" s="1">
         <f t="shared" si="9"/>
         <v>870</v>
@@ -37849,7 +37842,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="873" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:12">
       <c r="A873" s="1">
         <f t="shared" si="9"/>
         <v>871</v>
@@ -37885,7 +37878,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="874" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:12">
       <c r="A874" s="1">
         <f t="shared" si="9"/>
         <v>872</v>
@@ -37918,7 +37911,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="875" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:12">
       <c r="A875" s="1">
         <f t="shared" si="9"/>
         <v>873</v>
@@ -37951,7 +37944,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="876" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:12">
       <c r="A876" s="1">
         <f t="shared" si="9"/>
         <v>874</v>
